--- a/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2025</v>
+        <v>2011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1662766146137869</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6768384024794393</v>
+        <v>0.6719600778959287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3893</v>
+        <v>3789</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3309889109182625</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7583746113162524</v>
+        <v>0.7379740348779792</v>
       </c>
     </row>
     <row r="5">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2453</v>
+        <v>2479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3291642939890975</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8197597886693897</v>
+        <v>0.8285775467275495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -854,19 +854,19 @@
         <v>1925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4113</v>
+        <v>3988</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3749174783672124</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08663545480048952</v>
+        <v>0.06975567973712518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8010679841402032</v>
+        <v>0.7766930692430233</v>
       </c>
     </row>
     <row r="6">
@@ -896,19 +896,19 @@
         <v>1510</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2992</v>
+        <v>2524</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5045590913971157</v>
+        <v>0.5045590913971156</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1614609721129197</v>
+        <v>0.1604589399115974</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>1</v>
+        <v>0.8434887221572985</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -917,19 +917,19 @@
         <v>1510</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3519</v>
+        <v>3821</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2940936107145249</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07305650901001441</v>
+        <v>0.07126314700868042</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6854202849393427</v>
+        <v>0.744256470775102</v>
       </c>
     </row>
     <row r="7">
@@ -1021,19 +1021,19 @@
         <v>9065</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4160</v>
+        <v>4525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13772</v>
+        <v>13983</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5422700977997927</v>
+        <v>0.5422700977997928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2488469002170033</v>
+        <v>0.270693390049629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8238497470629058</v>
+        <v>0.8364554196473376</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1042,19 +1042,19 @@
         <v>1936</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4566</v>
+        <v>3953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2953423802815633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0877637754779458</v>
+        <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6967139611108508</v>
+        <v>0.6031712403026042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1063,19 +1063,19 @@
         <v>11001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5605</v>
+        <v>5847</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15799</v>
+        <v>15568</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4727248891780284</v>
+        <v>0.4727248891780282</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.240851008259899</v>
+        <v>0.2512271020107159</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6789049767046214</v>
+        <v>0.6689702677826225</v>
       </c>
     </row>
     <row r="9">
@@ -1092,19 +1092,19 @@
         <v>5029</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1239</v>
+        <v>1215</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11229</v>
+        <v>11127</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3008228088110154</v>
+        <v>0.3008228088110155</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07413980654192298</v>
+        <v>0.07266201564678255</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6717301300197924</v>
+        <v>0.6655866771593678</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2958</v>
+        <v>3434</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1102296720474878</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4512520152253776</v>
+        <v>0.5238833436310473</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1134,19 +1134,19 @@
         <v>5752</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1740</v>
+        <v>1864</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12697</v>
+        <v>11585</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2471437824493132</v>
+        <v>0.2471437824493131</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07477794443538568</v>
+        <v>0.08010953523496256</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5455925094188484</v>
+        <v>0.4978110844715225</v>
       </c>
     </row>
     <row r="10">
@@ -1166,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7105</v>
+        <v>7263</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1569070933891917</v>
+        <v>0.1569070933891918</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4250314659457768</v>
+        <v>0.4344750529087628</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1184,19 +1184,19 @@
         <v>3896</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1790</v>
+        <v>1773</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5888</v>
+        <v>5847</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5944279476709488</v>
+        <v>0.5944279476709489</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2731376246066984</v>
+        <v>0.2705103039067598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8984108372295871</v>
+        <v>0.8921501968376691</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1205,19 +1205,19 @@
         <v>6519</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2690</v>
+        <v>3058</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11445</v>
+        <v>11856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2801313283726586</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1156093754177016</v>
+        <v>0.1314143378359968</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.491781545678282</v>
+        <v>0.5094429958359458</v>
       </c>
     </row>
     <row r="11">
@@ -1309,19 +1309,19 @@
         <v>7230</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4303</v>
+        <v>4121</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9448</v>
+        <v>9680</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6752935246346471</v>
+        <v>0.675293524634647</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4018796407478801</v>
+        <v>0.3849662159635406</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8824797046125091</v>
+        <v>0.9041894144866875</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1330,19 +1330,19 @@
         <v>2360</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>620</v>
+        <v>574</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4535</v>
+        <v>4619</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3392393379499188</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08912173936465576</v>
+        <v>0.08250182279780258</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6517935200123672</v>
+        <v>0.6639634050078855</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -1351,19 +1351,19 @@
         <v>9590</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5969</v>
+        <v>6310</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13323</v>
+        <v>13124</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5429300779439108</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3379595958295776</v>
+        <v>0.3572328480027803</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7543016560155821</v>
+        <v>0.7429962725356113</v>
       </c>
     </row>
     <row r="13">
@@ -1380,19 +1380,19 @@
         <v>2337</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5241</v>
+        <v>5664</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2182866724124232</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04732854666019828</v>
+        <v>0.0484358421539154</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4895819980630006</v>
+        <v>0.5290726223522095</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>2337</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6038</v>
+        <v>5649</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1323089418202246</v>
+        <v>0.1323089418202245</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02921766798983888</v>
+        <v>0.02896680609054835</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3418308691147897</v>
+        <v>0.3198021582914834</v>
       </c>
     </row>
     <row r="14">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3575</v>
+        <v>3811</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1064198029529297</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3339584086357372</v>
+        <v>0.3559838931257549</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1464,19 +1464,19 @@
         <v>4597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2422</v>
+        <v>2338</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6337</v>
+        <v>6383</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6607606620500811</v>
+        <v>0.6607606620500812</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3482064799876328</v>
+        <v>0.3360365949921145</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9108782606353442</v>
+        <v>0.9174981772021973</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1485,19 +1485,19 @@
         <v>5736</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2783</v>
+        <v>2851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9594</v>
+        <v>8984</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3247609802358647</v>
+        <v>0.3247609802358646</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1575382093486817</v>
+        <v>0.1614309233945367</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5431494348825917</v>
+        <v>0.5086307282545817</v>
       </c>
     </row>
     <row r="15">
@@ -1589,7 +1589,7 @@
         <v>9679</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5911</v>
+        <v>5998</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>10754</v>
@@ -1598,7 +1598,7 @@
         <v>0.9000607486778075</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5496748297159857</v>
+        <v>0.5577040072343412</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1610,19 +1610,19 @@
         <v>2757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6128</v>
+        <v>6080</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2405318580523023</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04041696866607491</v>
+        <v>0.04370060297661305</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5346052299210657</v>
+        <v>0.53040834735468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1631,19 +1631,19 @@
         <v>12437</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5879</v>
+        <v>5886</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17308</v>
+        <v>17369</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5597788977442092</v>
+        <v>0.5597788977442094</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2646339462338741</v>
+        <v>0.2649443214326161</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7790584366639769</v>
+        <v>0.7817804745155633</v>
       </c>
     </row>
     <row r="17">
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4843</v>
+        <v>4756</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0999392513221925</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4503251702840166</v>
+        <v>0.4422959927656582</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1728,19 +1728,19 @@
         <v>8706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5335</v>
+        <v>5383</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11000</v>
+        <v>10962</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.7594681419476977</v>
+        <v>0.7594681419476975</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.465394770078934</v>
+        <v>0.4695916526453199</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9595830313339252</v>
+        <v>0.956299397023387</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -1749,19 +1749,19 @@
         <v>9780</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4909</v>
+        <v>4848</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16338</v>
+        <v>16331</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4402211022557907</v>
+        <v>0.4402211022557908</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2209415633360231</v>
+        <v>0.2182195254844366</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.735366053766126</v>
+        <v>0.7350556785673833</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>1962</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>479</v>
+        <v>586</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3223</v>
+        <v>3212</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.538699604099269</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1315455214203123</v>
+        <v>0.1608238602135874</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8846314978929295</v>
+        <v>0.8816188081466088</v>
       </c>
     </row>
     <row r="21">
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1825</v>
+        <v>1957</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1041701147795609</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5009760070292962</v>
+        <v>0.5371196922771881</v>
       </c>
     </row>
     <row r="22">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2785</v>
+        <v>2813</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3571302811211701</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7644672388122892</v>
+        <v>0.7720377025938998</v>
       </c>
     </row>
     <row r="23">
@@ -2125,19 +2125,19 @@
         <v>3228</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1327</v>
+        <v>1487</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4799</v>
+        <v>4740</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5289579376172919</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2175029912494133</v>
+        <v>0.2435757618061612</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7862845052774734</v>
+        <v>0.7766389409383708</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2159,19 +2159,19 @@
         <v>3228</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1518</v>
+        <v>1460</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5941</v>
+        <v>5689</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3428350657713947</v>
+        <v>0.3428350657713948</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1612621432417311</v>
+        <v>0.1550113332423842</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6309468773827658</v>
+        <v>0.6041484811689128</v>
       </c>
     </row>
     <row r="25">
@@ -2188,19 +2188,19 @@
         <v>1443</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3460</v>
+        <v>3114</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2364700876763124</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07044848572478309</v>
+        <v>0.07011851077962394</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5670124834542687</v>
+        <v>0.5102182937310069</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6483265921611866</v>
+        <v>0.6482573414664844</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2230,19 +2230,19 @@
         <v>2141</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4336</v>
+        <v>4122</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2274008854102618</v>
+        <v>0.2274008854102619</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07183221105764233</v>
+        <v>0.07022834838182851</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4604800974170205</v>
+        <v>0.4377433661542792</v>
       </c>
     </row>
     <row r="26">
@@ -2259,19 +2259,19 @@
         <v>1432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3136</v>
+        <v>3407</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2345719747063957</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07268009345250619</v>
+        <v>0.06913370349697223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5137881242269859</v>
+        <v>0.5583220742598919</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2280,7 +2280,7 @@
         <v>2615</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1058</v>
+        <v>912</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>3313</v>
@@ -2289,7 +2289,7 @@
         <v>0.7893044261107738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3192412557903377</v>
+        <v>0.2753128103658902</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2301,19 +2301,19 @@
         <v>4047</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1903</v>
+        <v>1979</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6299</v>
+        <v>6440</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4297640488183433</v>
+        <v>0.4297640488183436</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.202051680536551</v>
+        <v>0.2102048230106807</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6689685586736068</v>
+        <v>0.6839147291275471</v>
       </c>
     </row>
     <row r="27">
@@ -2405,19 +2405,19 @@
         <v>6705</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3367</v>
+        <v>3323</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9622</v>
+        <v>9605</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6272027892475366</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.314981323143539</v>
+        <v>0.3108848348849726</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9001034616146908</v>
+        <v>0.8985309504410428</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2426,19 +2426,19 @@
         <v>10263</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6212</v>
+        <v>6120</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13845</v>
+        <v>13777</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5137438952309145</v>
+        <v>0.5137438952309146</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3109699674669714</v>
+        <v>0.3063672968965244</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6931004053471655</v>
+        <v>0.689686327315623</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>21</v>
@@ -2447,19 +2447,19 @@
         <v>16967</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12191</v>
+        <v>12311</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21854</v>
+        <v>21756</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5532943709689581</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3975544264207233</v>
+        <v>0.4014549782197475</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7126549955790485</v>
+        <v>0.7094651446260064</v>
       </c>
     </row>
     <row r="29">
@@ -2476,19 +2476,19 @@
         <v>2825</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>819</v>
+        <v>774</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6926</v>
+        <v>6115</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2642676453424955</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07660997698710434</v>
+        <v>0.07242275275017189</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6479023526852523</v>
+        <v>0.5720447728257221</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2497,19 +2497,19 @@
         <v>2083</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5457</v>
+        <v>5508</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1042564064276692</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03362505392334156</v>
+        <v>0.03335303858824393</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2731725053999928</v>
+        <v>0.2757412759680376</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2518,19 +2518,19 @@
         <v>4908</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1672</v>
+        <v>1644</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9375</v>
+        <v>9143</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1600344983733564</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05452691116586264</v>
+        <v>0.0536073596421257</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3056979466741637</v>
+        <v>0.2981348216470729</v>
       </c>
     </row>
     <row r="30">
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4806</v>
+        <v>5626</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1085295654099678</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4495627534667058</v>
+        <v>0.5262417988114119</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2568,19 +2568,19 @@
         <v>7631</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>4363</v>
+        <v>4415</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12092</v>
+        <v>11973</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3819996983414162</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2184059974748207</v>
+        <v>0.2209941877295384</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6053190066765933</v>
+        <v>0.5993652051718105</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>11</v>
@@ -2589,19 +2589,19 @@
         <v>8791</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4837</v>
+        <v>4675</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>13787</v>
+        <v>13442</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2866711306576855</v>
+        <v>0.2866711306576856</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1577426451675649</v>
+        <v>0.152447367843442</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4495865447147223</v>
+        <v>0.4383362243613103</v>
       </c>
     </row>
     <row r="31">
@@ -2693,16 +2693,16 @@
         <v>6787</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3958</v>
+        <v>3561</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>8643</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7852085746840538</v>
+        <v>0.785208574684054</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4579811999811006</v>
+        <v>0.4120446550889348</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2714,19 +2714,19 @@
         <v>2162</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4110</v>
+        <v>4126</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4472546800737015</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1297601656033811</v>
+        <v>0.1307415712267326</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8501639483963539</v>
+        <v>0.8536132304700387</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -2735,19 +2735,19 @@
         <v>8949</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5655</v>
+        <v>5450</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>11586</v>
+        <v>11459</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6639900312474083</v>
+        <v>0.6639900312474085</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4195883134530556</v>
+        <v>0.4044215459827034</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8596716927898864</v>
+        <v>0.8502963459159032</v>
       </c>
     </row>
     <row r="33">
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>4685</v>
+        <v>5082</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.214791425315946</v>
+        <v>0.2147914253159461</v>
       </c>
       <c r="H33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5420188000189006</v>
+        <v>0.5879553449110646</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>3</v>
@@ -2785,19 +2785,19 @@
         <v>2132</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>4098</v>
+        <v>3801</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.4410934058312224</v>
+        <v>0.4410934058312225</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1210766253107211</v>
+        <v>0.1200401375062301</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8476494743001038</v>
+        <v>0.7862919795549863</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5</v>
@@ -2806,19 +2806,19 @@
         <v>3989</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>1512</v>
+        <v>1595</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>7552</v>
+        <v>7810</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2959622503674458</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1121738101280753</v>
+        <v>0.1183468311466631</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5603814576225471</v>
+        <v>0.5794976816912816</v>
       </c>
     </row>
     <row r="34">
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2482</v>
+        <v>2542</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1116519140950761</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5134273195176514</v>
+        <v>0.5258631407412722</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2970</v>
+        <v>3012</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04004771838514566</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2203502457723476</v>
+        <v>0.2235071967940681</v>
       </c>
     </row>
     <row r="35">
@@ -2973,19 +2973,19 @@
         <v>45042</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36721</v>
+        <v>35534</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>52092</v>
+        <v>52051</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.6604178593495731</v>
+        <v>0.6604178593495733</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5384108253908525</v>
+        <v>0.521004662573467</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7637942367961023</v>
+        <v>0.7631848579243622</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>33</v>
@@ -2994,19 +2994,19 @@
         <v>20791</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14160</v>
+        <v>14789</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>26846</v>
+        <v>27606</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3629404491677437</v>
+        <v>0.3629404491677438</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2471882249407013</v>
+        <v>0.2581643089871068</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4686449767678267</v>
+        <v>0.4819005010482789</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>84</v>
@@ -3015,19 +3015,19 @@
         <v>65833</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>54756</v>
+        <v>54434</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>76671</v>
+        <v>75476</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.5246193195939544</v>
+        <v>0.5246193195939545</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4363514593602716</v>
+        <v>0.4337816565351309</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.610989819067289</v>
+        <v>0.6014654412638187</v>
       </c>
     </row>
     <row r="37">
@@ -3044,19 +3044,19 @@
         <v>14430</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8984</v>
+        <v>8534</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23476</v>
+        <v>23433</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2115807135263945</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1317291363678173</v>
+        <v>0.1251276620505174</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3442093984995179</v>
+        <v>0.3435808296974716</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -3065,19 +3065,19 @@
         <v>7000</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3661</v>
+        <v>3639</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11535</v>
+        <v>11646</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1221941080779642</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06390878311198107</v>
+        <v>0.06352683139735023</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2013579249585985</v>
+        <v>0.2032906607537256</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>27</v>
@@ -3086,19 +3086,19 @@
         <v>21430</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14336</v>
+        <v>13519</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>31034</v>
+        <v>31182</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1707756974877349</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1142450273896167</v>
+        <v>0.1077286613830106</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2473081249189825</v>
+        <v>0.2484912455091787</v>
       </c>
     </row>
     <row r="38">
@@ -3115,19 +3115,19 @@
         <v>8730</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>40</v>
@@ -3136,19 +3136,19 @@
         <v>29494</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>23550</v>
+        <v>22698</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>37045</v>
+        <v>36604</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.5148654427542919</v>
+        <v>0.514865442754292</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4111081371078712</v>
+        <v>0.3962269262512342</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6466812733474495</v>
+        <v>0.6389752093070827</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>51</v>
@@ -3157,19 +3157,19 @@
         <v>38224</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>28995</v>
+        <v>28785</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>50788</v>
+        <v>48665</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.3046049829183108</v>
+        <v>0.3046049829183109</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2310568457617186</v>
+        <v>0.2293884464550214</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4047251083641883</v>
+        <v>0.3878086550424156</v>
       </c>
     </row>
     <row r="39">
